--- a/Python/Labs/09_lab/salaries.xlsx
+++ b/Python/Labs/09_lab/salaries.xlsx
@@ -124,6 +124,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Зарплата по отделам</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$K$2:$K$4</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$L$2:$L$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -413,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +581,14 @@
       <c r="I2" t="n">
         <v>5673.91</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Бухгалтерия</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>11631.51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -537,10 +624,16 @@
       <c r="I3" t="n">
         <v>5957.6</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Отдел кадров</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>25132.62</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>Бухгалтерия Итог</t>
@@ -555,13 +648,20 @@
       <c r="F4" t="n">
         <v>13369.56</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>1738.05</v>
       </c>
       <c r="I4" t="n">
         <v>11631.51</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Столовая</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7830</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,8 +804,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>Отдел кадров Итог</t>
@@ -720,7 +818,6 @@
       <c r="F9" t="n">
         <v>28888.07</v>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>3755.45</v>
       </c>
@@ -764,8 +861,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Столовая Итог</t>
@@ -780,7 +875,6 @@
       <c r="F11" t="n">
         <v>9000</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>1170</v>
       </c>
@@ -789,8 +883,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>Общий итог</t>
@@ -805,7 +897,6 @@
       <c r="F12" t="n">
         <v>51257.63</v>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>6663.5</v>
       </c>
@@ -815,5 +906,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>